--- a/intento.xlsx
+++ b/intento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8856" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8858" uniqueCount="1918">
   <si>
     <t>type</t>
   </si>
@@ -5767,6 +5767,12 @@
   </si>
   <si>
     <t>Seleccione País</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -6127,7 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -36366,8 +36372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -36379,13 +36385,17 @@
       <c r="A1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1916</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>1917</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/intento.xlsx
+++ b/intento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey_deprecated" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9867" uniqueCount="1640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="1656">
   <si>
     <t>type</t>
   </si>
@@ -4906,9 +4906,6 @@
     <t>Formulario Modelo para la caracterización de asentamientos humanos en la Región SICA</t>
   </si>
   <si>
-    <t>Materialidad y condiciones de habitabilidad</t>
-  </si>
-  <si>
     <t>Materialidad</t>
   </si>
   <si>
@@ -4922,29 +4919,80 @@
     <t>metros_area_verde</t>
   </si>
   <si>
-    <t>Metros totales estimados de área verde del Asentamiento Humano</t>
+    <t>Se debe calcular previo al mapeo</t>
+  </si>
+  <si>
+    <t>Cantidad de hogares con conexión a red eléctrica</t>
+  </si>
+  <si>
+    <t>Cantidad de población con telefonía (fija o móvil)</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;GENERALES&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;VIVIENDA&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;LIVING PLACE&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;Materialidad y condiciones de la vivienda&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;Materiality and conditions of the home&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;HABITAT&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;Materialidad y condiciones de habitabilidad&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;Materiality and habitability conditions&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>Cantidad de población con Acceso a Internet</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;RIESGO&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;RISK&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;Socio-economic&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#1e2749"&gt;SOCIO-ECONÓMICA&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>It must be calculated prior to mapping</t>
+  </si>
+  <si>
+    <t>NUMBER OF HOUSES WITH ELECTRICAL RED CONNECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  . &lt;= ${cantidad_de_habitantes}</t>
+  </si>
+  <si>
+    <t>${cantidad_poblacion_telefonia} div ${cantidad_de_habitantes}</t>
+  </si>
+  <si>
+    <t>${cantidad_poblacion_acceso_internet} div ${cantidad_de_habitantes}</t>
+  </si>
+  <si>
+    <t>Metros totales estimados de área verde (el área en metros cuadrados) del Asentamiento Humano</t>
   </si>
   <si>
     <t xml:space="preserve">
-Estimated total meters of green area of ​​the Human Settlement</t>
-  </si>
-  <si>
-    <t>Se debe calcular previo al mapeo (Área de la figura ingresada area(${area_verde_asentamiento_humano}))</t>
-  </si>
-  <si>
-    <t>It must be calculated prior to mapping (Figure area entered  area(${area_verde_asentamiento_humano}))</t>
-  </si>
-  <si>
-    <t>Cantidad de hogares con conexión a red eléctrica</t>
-  </si>
-  <si>
-    <t>Cantidad de población con telefonía (fija o móvil)</t>
-  </si>
-  <si>
-    <t>Porcentaje de población con Acceso a Internet</t>
-  </si>
-  <si>
-    <t>&lt;span style="color:#1e2749"&gt;GENERALES&lt;/span&gt;</t>
+Estimated total meters of green area (the area in square meters) of the Human Settlement</t>
+  </si>
+  <si>
+    <t>Formulario Modelo para la caracterización de asentamientos humanos en la Región SICA (En la versión de móvil presione Siguiente)</t>
+  </si>
+  <si>
+    <t>Este valor no puede ser superior a ${cantidad_de_habitantes} (Cantidad de Habitantes ingresados)</t>
   </si>
 </sst>
 </file>
@@ -7507,8 +7555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7602,6 +7650,15 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1654</v>
+      </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -7623,10 +7680,10 @@
         <v>1370</v>
       </c>
       <c r="C5" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="D5" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1387</v>
@@ -7989,13 +8046,13 @@
         <v>1372</v>
       </c>
       <c r="C22" t="s">
-        <v>1372</v>
+        <v>1635</v>
       </c>
       <c r="D22" t="s">
-        <v>1372</v>
+        <v>1635</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1396</v>
+        <v>1636</v>
       </c>
       <c r="N22" s="6"/>
     </row>
@@ -8214,13 +8271,13 @@
         <v>1465</v>
       </c>
       <c r="C32" t="s">
-        <v>1464</v>
+        <v>1637</v>
       </c>
       <c r="D32" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>1466</v>
+        <v>1637</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1">
@@ -8471,13 +8528,13 @@
         <v>1373</v>
       </c>
       <c r="C47" t="s">
-        <v>1373</v>
+        <v>1639</v>
       </c>
       <c r="D47" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>1373</v>
+        <v>1639</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15" thickBot="1">
@@ -8485,16 +8542,16 @@
         <v>1369</v>
       </c>
       <c r="B48" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C48" t="s">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="D48" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>1497</v>
+        <v>1640</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15" thickBot="1">
@@ -8673,13 +8730,13 @@
         <v>1520</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>1404</v>
+        <v>1648</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>11</v>
@@ -8729,10 +8786,10 @@
         <v>1524</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>1405</v>
@@ -8741,10 +8798,10 @@
         <v>11</v>
       </c>
       <c r="P61" s="10" t="s">
-        <v>1506</v>
+        <v>1649</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>1507</v>
+        <v>1655</v>
       </c>
       <c r="R61" s="10">
         <v>0</v>
@@ -8762,7 +8819,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>1527</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="10" customFormat="1" ht="15" thickBot="1">
@@ -8785,10 +8842,10 @@
         <v>1528</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>1406</v>
@@ -8797,10 +8854,10 @@
         <v>11</v>
       </c>
       <c r="P64" s="10" t="s">
-        <v>1506</v>
+        <v>1649</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>1507</v>
+        <v>1655</v>
       </c>
       <c r="R64" s="10">
         <v>0</v>
@@ -8818,7 +8875,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>1531</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="10" customFormat="1" ht="15" thickBot="1">
@@ -8967,13 +9024,13 @@
         <v>1336</v>
       </c>
       <c r="C74" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>1629</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>1630</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -9024,25 +9081,25 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M77" t="s">
         <v>1631</v>
       </c>
-      <c r="C77" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>1633</v>
-      </c>
-      <c r="M77" t="s">
-        <v>1634</v>
-      </c>
-      <c r="N77" t="s">
-        <v>1634</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>1635</v>
+      <c r="N77" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" thickBot="1">
@@ -9079,13 +9136,13 @@
         <v>1374</v>
       </c>
       <c r="C80" t="s">
-        <v>1374</v>
+        <v>1643</v>
       </c>
       <c r="D80" t="s">
-        <v>1374</v>
+        <v>1643</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1416</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1">
@@ -9182,13 +9239,13 @@
         <v>1376</v>
       </c>
       <c r="C86" t="s">
-        <v>1375</v>
+        <v>1646</v>
       </c>
       <c r="D86" t="s">
-        <v>1375</v>
+        <v>1646</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1420</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="15" thickBot="1">
@@ -38124,7 +38181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/intento.xlsx
+++ b/intento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey_deprecated" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9909" uniqueCount="1665">
   <si>
     <t>type</t>
   </si>
@@ -4993,6 +4993,33 @@
   </si>
   <si>
     <t>Este valor no puede ser superior a ${cantidad_de_habitantes} (Cantidad de Habitantes ingresados)</t>
+  </si>
+  <si>
+    <t>área/superficie promedio de las viviendas en metros cuadrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (espacio para ocio o esparcimiento-minutos a pie)</t>
+  </si>
+  <si>
+    <t>Coordenada de la amenaza</t>
+  </si>
+  <si>
+    <t>¿Existe iluminación pública?</t>
+  </si>
+  <si>
+    <t>¿Existe servicios comunitarios? (guarderías, casas comunales, etc.)</t>
+  </si>
+  <si>
+    <t>select_one iluminacion</t>
+  </si>
+  <si>
+    <t>select_one servicio_comunitario</t>
+  </si>
+  <si>
+    <t>servicio_comunitario</t>
+  </si>
+  <si>
+    <t>iluminacion</t>
   </si>
 </sst>
 </file>
@@ -7553,10 +7580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8128,10 +8155,10 @@
         <v>1491</v>
       </c>
       <c r="C25" t="s">
-        <v>1492</v>
+        <v>1656</v>
       </c>
       <c r="D25" t="s">
-        <v>1492</v>
+        <v>1656</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1493</v>
@@ -8890,70 +8917,73 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickBot="1">
+    <row r="67" spans="1:15" s="10" customFormat="1">
       <c r="A67" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1">
+        <v>1661</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="10" customFormat="1" ht="15" thickBot="1">
       <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
-        <v>39</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
+        <v>1662</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" thickBot="1">
       <c r="A69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C69" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" t="s">
-        <v>40</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1">
       <c r="A70" t="s">
         <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1657</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1">
@@ -8961,16 +8991,16 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -8981,16 +9011,16 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -8998,19 +9028,19 @@
     </row>
     <row r="73" spans="1:15" ht="15" thickBot="1">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -9018,19 +9048,19 @@
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B74" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C74" t="s">
-        <v>1628</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>1629</v>
+        <v>43</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>1411</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -9038,168 +9068,168 @@
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1544</v>
+        <v>1412</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="15" thickBot="1">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>1384</v>
+        <v>1336</v>
       </c>
       <c r="C76" t="s">
-        <v>47</v>
+        <v>1628</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="L76" t="s">
-        <v>1385</v>
+        <v>1628</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="15" thickBot="1">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>1630</v>
+        <v>1337</v>
       </c>
       <c r="C77" t="s">
-        <v>1652</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>1653</v>
-      </c>
-      <c r="M77" t="s">
-        <v>1631</v>
-      </c>
-      <c r="N77" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1631</v>
+        <v>47</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="15" thickBot="1">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>1338</v>
+        <v>1384</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
+        <v>1414</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1">
       <c r="A79" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E79" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1631</v>
+      </c>
     </row>
     <row r="80" spans="1:15" ht="15" thickBot="1">
       <c r="A80" t="s">
-        <v>1369</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
-        <v>1374</v>
+        <v>1338</v>
       </c>
       <c r="C80" t="s">
-        <v>1643</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>1644</v>
+        <v>49</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="15" thickBot="1">
       <c r="A81" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C81" t="s">
-        <v>51</v>
-      </c>
-      <c r="D81" t="s">
-        <v>51</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:18" ht="15" thickBot="1">
       <c r="A82" t="s">
-        <v>1537</v>
+        <v>1369</v>
       </c>
       <c r="B82" t="s">
-        <v>1536</v>
+        <v>1374</v>
       </c>
       <c r="C82" t="s">
-        <v>1538</v>
+        <v>1643</v>
       </c>
       <c r="D82" t="s">
-        <v>1538</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
+        <v>1643</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="15" thickBot="1">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -9207,19 +9237,19 @@
     </row>
     <row r="84" spans="1:18" ht="15" thickBot="1">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>1537</v>
       </c>
       <c r="B84" t="s">
-        <v>1341</v>
+        <v>1536</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>1538</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>1538</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>1419</v>
+        <v>1540</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -9227,103 +9257,85 @@
     </row>
     <row r="85" spans="1:18" ht="15" thickBot="1">
       <c r="A85" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E85" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" spans="1:18" ht="15" thickBot="1">
       <c r="A86" t="s">
-        <v>1369</v>
+        <v>52</v>
       </c>
       <c r="B86" t="s">
-        <v>1376</v>
+        <v>1340</v>
       </c>
       <c r="C86" t="s">
-        <v>1646</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>1645</v>
+        <v>53</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:18" ht="15" thickBot="1">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B87" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="P87" t="s">
-        <v>1541</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>1543</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
     </row>
     <row r="88" spans="1:18" ht="15" thickBot="1">
       <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>57</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="P88" t="s">
-        <v>1542</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>1543</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:18" ht="15" thickBot="1">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>1369</v>
       </c>
       <c r="B89" t="s">
-        <v>1344</v>
+        <v>1376</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>1646</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
+        <v>1646</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="15" thickBot="1">
@@ -9331,19 +9343,28 @@
         <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="C90" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1541</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1543</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="15" thickBot="1">
@@ -9351,19 +9372,28 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>60</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>1425</v>
+        <v>57</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>1422</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
+      </c>
+      <c r="P91" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1543</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="15" thickBot="1">
@@ -9371,16 +9401,16 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
@@ -9391,16 +9421,16 @@
         <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="C93" t="s">
-        <v>1347</v>
+        <v>59</v>
       </c>
       <c r="D93" t="s">
-        <v>1347</v>
+        <v>59</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
@@ -9411,16 +9441,16 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>1428</v>
+        <v>60</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>1425</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
@@ -9431,16 +9461,16 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
@@ -9451,16 +9481,16 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>1347</v>
       </c>
       <c r="D96" t="s">
-        <v>64</v>
+        <v>1347</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
@@ -9471,38 +9501,98 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C97" t="s">
-        <v>1353</v>
+        <v>62</v>
       </c>
       <c r="D97" t="s">
-        <v>1353</v>
+        <v>62</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="F97" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="15" thickBot="1">
       <c r="A98" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" thickBot="1">
+      <c r="A99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C99" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F99" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" thickBot="1">
+      <c r="A100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
         <v>1371</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1269"/>
+  <dimension ref="A1:G1273"/>
   <sheetViews>
-    <sheetView topLeftCell="D1231" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140:E1253"/>
+    <sheetView tabSelected="1" topLeftCell="A1249" workbookViewId="0">
+      <selection activeCell="A1273" sqref="A1273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -38163,6 +38253,74 @@
         <v>83</v>
       </c>
       <c r="E1269" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1273" t="s">
         <v>83</v>
       </c>
     </row>
